--- a/test4lockMaster.xlsx
+++ b/test4lockMaster.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11029"/>
-  <fileSharing readOnlyRecommended="1" userName="Speedy Gonzales" algorithmName="SHA-512" hashValue="XofaD6gbPUGFan62Ae6QT1Qyn3r6mg/ZAVPbPdqWlQvCjoSW+KWODYcYr0DTdxZYaC6Qb27dgeRS1Ub2hPESww==" saltValue="JHGaTyfyBgLKxIPDhekU8A==" spinCount="100000"/>
+  <fileSharing readOnlyRecommended="1" userName="Speedy Gonzales" algorithmName="SHA-512" hashValue="7af4f+dH7HjS5opyTohLmrslZ6ftEFsuUB26O7FzukmF2bChlFEK15DQgaDCRQY+j2O4jTHbm9dRis94GN//1w==" saltValue="yRXxLTRKG/RfAjdEdTYjLw==" spinCount="100000"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/speedy/Documents/GitProjects/AmpSheetRepository/AmpSheetMain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3D44A5-1EFE-BB42-B83B-CB4905C4901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1053B23-B3DA-F24C-9BD8-C62CB8F55BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{329AA3C5-52D5-8A41-A20D-B75AE869BCAA}"/>
+    <workbookView xWindow="560" yWindow="920" windowWidth="34560" windowHeight="20260" firstSheet="1" activeTab="14" xr2:uid="{329AA3C5-52D5-8A41-A20D-B75AE869BCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Racks" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="200">
   <si>
     <t>ChanLow</t>
   </si>
@@ -639,6 +639,24 @@
   <si>
     <t>Total Rack Amps =</t>
   </si>
+  <si>
+    <t>And Lexx Racks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#'s indicate </t>
+  </si>
+  <si>
+    <t>Calc for 120v</t>
+  </si>
+  <si>
+    <t>1=Leg Amp</t>
+  </si>
+  <si>
+    <t>2=Neutral</t>
+  </si>
 </sst>
 </file>
 
@@ -971,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,21 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,12 +1168,21 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1178,6 +1190,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1203,6 +1223,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1221,30 +1256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1281,13 +1292,37 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,7 +1661,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DU103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
@@ -1646,10 +1681,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="15" customFormat="1" ht="22">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1690,9 +1725,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2522,7 +2557,7 @@
       <c r="DU9" s="15"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="68"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2539,12 +2574,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -2557,24 +2592,24 @@
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="69"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="55">
         <f>SUM(C10:E10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="80">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="73">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -2587,24 +2622,24 @@
       <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="49">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="76">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="77">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -2617,18 +2652,18 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -2641,16 +2676,16 @@
       <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:125" s="24" customFormat="1" ht="11">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -2703,9 +2738,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +3164,7 @@
       <c r="BE22" s="15"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="68"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3146,12 +3181,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -3164,24 +3199,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="69"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="70">
         <f>SUM(C23:E23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="72">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="68">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -3194,24 +3229,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="49">
         <f>SUM(C12+C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="58">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="49">
         <f>SUM(G12+G24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -3224,16 +3259,16 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -3286,9 +3321,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4097,7 +4132,7 @@
       <c r="DQ34" s="15"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="68"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4114,12 +4149,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -4132,24 +4167,24 @@
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="69"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="55">
         <f>SUM(C35:E35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="80">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="73">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -4162,24 +4197,24 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="49">
         <f>C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="76">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="77">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -4192,18 +4227,18 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -4216,16 +4251,16 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:121" s="24" customFormat="1" ht="11">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -4278,9 +4313,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -4657,7 +4692,7 @@
       <c r="AW47" s="15"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="68"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -4674,12 +4709,12 @@
         <v>0</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="70" t="s">
+      <c r="G48" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -4692,24 +4727,24 @@
       <c r="T48" s="19"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="69"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="70">
         <f>SUM(C48:E48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="72">
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="68">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -4722,24 +4757,24 @@
       <c r="T49" s="19"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="58">
+      <c r="C50" s="49">
         <f>SUM(C37+C49)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="58">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="49">
         <f>SUM(G37+G49)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -4752,16 +4787,16 @@
       <c r="T50" s="19"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="69"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -4814,9 +4849,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -5181,7 +5216,7 @@
       <c r="AU59" s="15"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="68"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
@@ -5198,12 +5233,12 @@
         <v>0</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -5216,24 +5251,24 @@
       <c r="T60" s="19"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="69"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C61" s="55">
         <f>SUM(C60:E60)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="80">
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="73">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -5246,24 +5281,24 @@
       <c r="T61" s="19"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="74"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="49">
         <f>C61</f>
         <v>0</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="76">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="77">
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -5276,18 +5311,18 @@
       <c r="T62" s="19"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="75"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -5300,16 +5335,16 @@
       <c r="T63" s="19"/>
     </row>
     <row r="64" spans="1:47" s="24" customFormat="1" ht="11">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
@@ -5362,9 +5397,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -5699,7 +5734,7 @@
       <c r="AP72" s="15"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="68"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
@@ -5716,12 +5751,12 @@
         <v>0</v>
       </c>
       <c r="F73" s="1"/>
-      <c r="G73" s="70" t="s">
+      <c r="G73" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -5734,24 +5769,24 @@
       <c r="T73" s="19"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="69"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="82">
+      <c r="C74" s="70">
         <f>SUM(C73:E73)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="72">
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="68">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -5764,24 +5799,24 @@
       <c r="T74" s="19"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="74" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="49">
         <f>SUM(C62+C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="58">
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="49">
         <f>SUM(G62+G74)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -5794,16 +5829,16 @@
       <c r="T75" s="19"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="69"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -5856,9 +5891,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -6481,7 +6516,7 @@
       <c r="CL84" s="15"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="68"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
@@ -6498,12 +6533,12 @@
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="70" t="s">
+      <c r="G85" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -6516,24 +6551,24 @@
       <c r="T85" s="19"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="69"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="85">
+      <c r="C86" s="55">
         <f>SUM(C85:E85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="80">
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="73">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -6546,24 +6581,24 @@
       <c r="T86" s="19"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="74"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="58">
+      <c r="C87" s="49">
         <f>C86</f>
         <v>0</v>
       </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="76">
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="77">
         <f>G86</f>
         <v>0</v>
       </c>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
@@ -6576,18 +6611,18 @@
       <c r="T87" s="19"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="75"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
@@ -6600,16 +6635,16 @@
       <c r="T88" s="19"/>
     </row>
     <row r="89" spans="1:90" s="28" customFormat="1" ht="7">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
       <c r="K89" s="26"/>
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
@@ -6662,9 +6697,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -7173,7 +7208,7 @@
       <c r="BS97" s="15"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="68"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
@@ -7190,12 +7225,12 @@
         <v>0</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="70" t="s">
+      <c r="G98" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
@@ -7203,24 +7238,24 @@
       <c r="O98" s="18"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="69"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="82">
+      <c r="C99" s="70">
         <f>SUM(C98:E98)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="72">
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="68">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
@@ -7228,24 +7263,24 @@
       <c r="O99" s="18"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="68"/>
-      <c r="B100" s="74" t="s">
+      <c r="A100" s="64"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="58">
+      <c r="C100" s="49">
         <f>SUM(C87+C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="58">
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="49">
         <f>SUM(G87+G99)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
@@ -7253,16 +7288,16 @@
       <c r="O100" s="18"/>
     </row>
     <row r="101" spans="1:71" ht="17" customHeight="1">
-      <c r="A101" s="69"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
@@ -7275,16 +7310,16 @@
       <c r="C102" s="29"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="92" t="s">
+      <c r="F102" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="93"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="95">
+      <c r="G102" s="86"/>
+      <c r="H102" s="87"/>
+      <c r="I102" s="88">
         <f>ROUND(SUM(C103:E103),2)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="96"/>
+      <c r="J102" s="89"/>
       <c r="K102" s="30"/>
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
@@ -7292,10 +7327,10 @@
       <c r="O102" s="30"/>
     </row>
     <row r="103" spans="1:71" s="31" customFormat="1" ht="32">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="89"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="38">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
         <v>0</v>
@@ -7308,15 +7343,15 @@
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="97" t="s">
+      <c r="F103" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="98">
-        <v>0</v>
-      </c>
-      <c r="J103" s="98"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59">
+        <v>0</v>
+      </c>
+      <c r="J103" s="59"/>
       <c r="K103" s="30"/>
       <c r="L103" s="30"/>
       <c r="M103" s="30"/>
@@ -7325,6 +7360,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="G75:J76"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C75:F76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F13"/>
     <mergeCell ref="C25:F26"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="F103:H103"/>
@@ -7341,68 +7438,6 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="G75:J76"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C75:F76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="G62:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -9052,234 +9087,345 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F4E16C-CBB2-DB42-9EC7-B339465D5E6D}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="94"/>
+    <col min="4" max="4" width="10.83203125" style="36"/>
+    <col min="5" max="5" width="10.83203125" style="94"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:5">
       <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="94" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="22">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="22">
-      <c r="A3" s="3"/>
+      <c r="C2" s="92">
+        <v>1</v>
+      </c>
+      <c r="D2" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="36">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="22">
-      <c r="A4" s="3"/>
+      <c r="D3" s="93">
+        <v>1</v>
+      </c>
+      <c r="E3" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="36">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="22">
-      <c r="A5" s="3"/>
+      <c r="C4" s="92">
+        <v>2</v>
+      </c>
+      <c r="E4" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="36">
         <v>4</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="22">
-      <c r="A6" s="3"/>
+      <c r="C5" s="92">
+        <v>1</v>
+      </c>
+      <c r="D5" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="36">
         <v>5</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="22">
-      <c r="A7" s="3"/>
+      <c r="D6" s="93">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="36">
         <v>6</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="22">
-      <c r="A8" s="3"/>
+      <c r="C7" s="92">
+        <v>2</v>
+      </c>
+      <c r="E7" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" s="36"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="22">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="36">
         <v>1</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="22">
-      <c r="A10" s="3"/>
+      <c r="C9" s="96">
+        <v>1</v>
+      </c>
+      <c r="D9" s="98">
+        <v>2</v>
+      </c>
+      <c r="E9" s="97"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" s="36">
         <v>2</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="22">
-      <c r="A11" s="3"/>
+      <c r="C10" s="96">
+        <v>2</v>
+      </c>
+      <c r="D10" s="98">
+        <v>1</v>
+      </c>
+      <c r="E10" s="97"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11" s="36">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="22">
-      <c r="A12" s="3"/>
+      <c r="C11" s="96">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12" s="36">
         <v>4</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="22">
-      <c r="A13" s="3"/>
+      <c r="C12" s="96">
+        <v>2</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" s="36">
         <v>5</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="22">
-      <c r="A14" s="3"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98">
+        <v>1</v>
+      </c>
+      <c r="E13" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" s="36">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="22">
-      <c r="A15" s="3"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98">
+        <v>2</v>
+      </c>
+      <c r="E14" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="36"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="22">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="36">
         <v>1</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="22">
-      <c r="A17" s="3"/>
+      <c r="C16" s="92">
+        <v>1</v>
+      </c>
+      <c r="D16" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27">
+      <c r="A17" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="B17" s="36">
         <v>2</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="22">
-      <c r="A18" s="3"/>
+      <c r="C17" s="92">
+        <v>2</v>
+      </c>
+      <c r="E17" s="95">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27">
       <c r="B18" s="36">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="22">
-      <c r="A19" s="3"/>
+      <c r="D18" s="93">
+        <v>1</v>
+      </c>
+      <c r="E18" s="95">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" s="36">
         <v>4</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="22">
-      <c r="A20" s="3"/>
+      <c r="C19" s="92">
+        <v>1</v>
+      </c>
+      <c r="D19" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20" s="36">
         <v>5</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="22">
-      <c r="A21" s="3"/>
+      <c r="C20" s="92">
+        <v>2</v>
+      </c>
+      <c r="E20" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" s="36">
         <v>6</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="93">
+        <v>1</v>
+      </c>
+      <c r="E21" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="36"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="36">
+        <v>1</v>
+      </c>
+      <c r="C23" s="92">
+        <v>1</v>
+      </c>
+      <c r="E23" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="36">
+        <v>2</v>
+      </c>
+      <c r="C24" s="92">
+        <v>2</v>
+      </c>
+      <c r="D24" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="36">
+        <v>3</v>
+      </c>
+      <c r="D25" s="93">
+        <v>2</v>
+      </c>
+      <c r="E25" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="36">
+        <v>4</v>
+      </c>
+      <c r="C26" s="92">
+        <v>1</v>
+      </c>
+      <c r="E26" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="36">
+        <v>5</v>
+      </c>
+      <c r="C27" s="92">
+        <v>2</v>
+      </c>
+      <c r="D27" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="36">
+        <v>6</v>
+      </c>
+      <c r="D28" s="93">
+        <v>2</v>
+      </c>
+      <c r="E28" s="95">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5eS5V7tWAdrXeRNkq1KDtMVuDHlulqgMlEXAh6TjOwCfUyW8IiFO6AvidckLknI1MLBrZ1hEpNQML9KaXnladg==" saltValue="ujFfwJFU3OtlHEUCSbM4qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JJpzWHE0JLMlhx9D+AMnImuBWMBiQnFPdpk9/CmixUu476WjsR1SdggeXjMOEGLpwSM0jWnsa4CT3vJ+JnZHPA==" saltValue="Y6V8ajk0x1wTjeVYg+Hj3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9307,10 +9453,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="15" customFormat="1" ht="22">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -9359,9 +9505,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10464,7 +10610,7 @@
       <c r="DU9" s="15"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="68"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -10483,12 +10629,12 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -10501,24 +10647,24 @@
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="69"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="55">
         <f>SUM(C10:E10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="80">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="73">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -10531,24 +10677,24 @@
       <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="49">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="76">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="77">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -10561,18 +10707,18 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -10585,16 +10731,16 @@
       <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:125" s="24" customFormat="1" ht="11">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -10655,9 +10801,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -11351,7 +11497,7 @@
       <c r="BE22" s="15"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="68"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -11370,12 +11516,12 @@
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -11388,24 +11534,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="69"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="70">
         <f>SUM(C23:E23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="72">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="68">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -11418,24 +11564,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="49">
         <f>SUM(C12+C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="58">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="49">
         <f>SUM(G12+G24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -11448,16 +11594,16 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -11518,9 +11664,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -12599,7 +12745,7 @@
       <c r="DQ34" s="15"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="68"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -12618,12 +12764,12 @@
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -12636,24 +12782,24 @@
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="69"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="55">
         <f>SUM(C35:E35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="80">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="73">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -12666,24 +12812,24 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="49">
         <f>C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="76">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="77">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -12696,18 +12842,18 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -12720,16 +12866,16 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:121" s="24" customFormat="1" ht="11">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -12790,9 +12936,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -13439,7 +13585,7 @@
       <c r="AW47" s="15"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="68"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -13458,12 +13604,12 @@
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="70" t="s">
+      <c r="G48" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -13476,24 +13622,24 @@
       <c r="T48" s="19"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="69"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="70">
         <f>SUM(C48:E48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="72">
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="68">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -13506,24 +13652,24 @@
       <c r="T49" s="19"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="58">
+      <c r="C50" s="49">
         <f>SUM(C37+C49)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="58">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="49">
         <f>SUM(G37+G49)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -13536,16 +13682,16 @@
       <c r="T50" s="19"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="69"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -13606,9 +13752,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -14243,7 +14389,7 @@
       <c r="AU59" s="15"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="68"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
@@ -14262,12 +14408,12 @@
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -14280,24 +14426,24 @@
       <c r="T60" s="19"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="69"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C61" s="55">
         <f>SUM(C60:E60)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="80">
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="73">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -14310,24 +14456,24 @@
       <c r="T61" s="19"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="74"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="49">
         <f>C61</f>
         <v>0</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="76">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="77">
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -14340,18 +14486,18 @@
       <c r="T62" s="19"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="75"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -14364,16 +14510,16 @@
       <c r="T63" s="19"/>
     </row>
     <row r="64" spans="1:47" s="24" customFormat="1" ht="11">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
@@ -14434,9 +14580,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -15041,7 +15187,7 @@
       <c r="AP72" s="15"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="68"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
@@ -15060,12 +15206,12 @@
       <c r="F73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="70" t="s">
+      <c r="G73" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -15078,24 +15224,24 @@
       <c r="T73" s="19"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="69"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="82">
+      <c r="C74" s="70">
         <f>SUM(C73:E73)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="72">
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="68">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -15108,24 +15254,24 @@
       <c r="T74" s="19"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="74" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="49">
         <f>SUM(C62+C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="58">
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="49">
         <f>SUM(G62+G74)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -15138,16 +15284,16 @@
       <c r="T75" s="19"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="69"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -15208,9 +15354,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -16103,7 +16249,7 @@
       <c r="CL84" s="15"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="68"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
@@ -16122,12 +16268,12 @@
       <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="70" t="s">
+      <c r="G85" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -16140,24 +16286,24 @@
       <c r="T85" s="19"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="69"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="85">
+      <c r="C86" s="55">
         <f>SUM(C85:E85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="80">
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="73">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -16170,24 +16316,24 @@
       <c r="T86" s="19"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="74"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="58">
+      <c r="C87" s="49">
         <f>C86</f>
         <v>0</v>
       </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="76">
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="77">
         <f>G86</f>
         <v>0</v>
       </c>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
@@ -16200,18 +16346,18 @@
       <c r="T87" s="19"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="75"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
@@ -16224,16 +16370,16 @@
       <c r="T88" s="19"/>
     </row>
     <row r="89" spans="1:90" s="28" customFormat="1" ht="7">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
       <c r="K89" s="26"/>
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
@@ -16294,9 +16440,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -17075,7 +17221,7 @@
       <c r="BS97" s="15"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="68"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
@@ -17092,12 +17238,12 @@
         <v>0</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="70" t="s">
+      <c r="G98" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
@@ -17105,24 +17251,24 @@
       <c r="O98" s="18"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="69"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="82">
+      <c r="C99" s="70">
         <f>SUM(C98:E98)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="72">
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="68">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
@@ -17130,24 +17276,24 @@
       <c r="O99" s="18"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="68"/>
-      <c r="B100" s="74" t="s">
+      <c r="A100" s="64"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="58">
+      <c r="C100" s="49">
         <f>SUM(C87+C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="58">
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="49">
         <f>SUM(G87+G99)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
@@ -17155,16 +17301,16 @@
       <c r="O100" s="18"/>
     </row>
     <row r="101" spans="1:71" ht="22" customHeight="1">
-      <c r="A101" s="69"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
@@ -17177,16 +17323,16 @@
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
       <c r="E102" s="42"/>
-      <c r="F102" s="92" t="s">
+      <c r="F102" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="93"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="95">
+      <c r="G102" s="86"/>
+      <c r="H102" s="87"/>
+      <c r="I102" s="88">
         <f>ROUND(SUM(C103:E103),2)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="96"/>
+      <c r="J102" s="89"/>
       <c r="K102" s="30"/>
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
@@ -17194,10 +17340,10 @@
       <c r="O102" s="30"/>
     </row>
     <row r="103" spans="1:71" s="31" customFormat="1" ht="32">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="89"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="38">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
         <v>0</v>
@@ -17210,15 +17356,15 @@
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="97" t="s">
+      <c r="F103" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="98">
-        <v>0</v>
-      </c>
-      <c r="J103" s="98"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59">
+        <v>0</v>
+      </c>
+      <c r="J103" s="59"/>
       <c r="K103" s="30"/>
       <c r="L103" s="30"/>
       <c r="M103" s="30"/>
@@ -17228,21 +17374,53 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="KtgEuMG/acsHmtOZ/doKKqlT5kNPSZNRfQbjoTtKyT1BFrviCqHsUmco9NtayX6hguuxslk9QxWDmAGpN+XJmQ==" saltValue="q612C3Gg3CDENLU4xWLwxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="78">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:F76"/>
+    <mergeCell ref="G75:J76"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="C49:F49"/>
@@ -17259,53 +17437,21 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="C37:F38"/>
     <mergeCell ref="G37:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:F76"/>
-    <mergeCell ref="G75:J76"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -17340,10 +17486,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="15" customFormat="1" ht="22">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -17392,9 +17538,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -18497,7 +18643,7 @@
       <c r="DU9" s="15"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="68"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -18516,12 +18662,12 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -18534,24 +18680,24 @@
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="69"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="55">
         <f>SUM(C10:E10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="80">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="73">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -18564,24 +18710,24 @@
       <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="49">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="76">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="77">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -18594,18 +18740,18 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -18618,16 +18764,16 @@
       <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:125" s="24" customFormat="1" ht="11">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -18688,9 +18834,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -19384,7 +19530,7 @@
       <c r="BE22" s="15"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="68"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -19403,12 +19549,12 @@
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -19421,24 +19567,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="69"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="70">
         <f>SUM(C23:E23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="72">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="68">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -19451,24 +19597,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="49">
         <f>SUM(C12+C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="58">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="49">
         <f>SUM(G12+G24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -19481,16 +19627,16 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -19551,9 +19697,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -20632,7 +20778,7 @@
       <c r="DQ34" s="15"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="68"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -20651,12 +20797,12 @@
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -20669,24 +20815,24 @@
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="69"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="55">
         <f>SUM(C35:E35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="80">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="73">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -20699,24 +20845,24 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="49">
         <f>C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="76">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="77">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -20729,18 +20875,18 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -20753,16 +20899,16 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:121" s="24" customFormat="1" ht="11">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -20823,9 +20969,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -21472,7 +21618,7 @@
       <c r="AW47" s="15"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="68"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -21491,12 +21637,12 @@
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="70" t="s">
+      <c r="G48" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -21509,24 +21655,24 @@
       <c r="T48" s="19"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="69"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="70">
         <f>SUM(C48:E48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="72">
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="68">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -21539,24 +21685,24 @@
       <c r="T49" s="19"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="58">
+      <c r="C50" s="49">
         <f>SUM(C37+C49)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="58">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="49">
         <f>SUM(G37+G49)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -21569,16 +21715,16 @@
       <c r="T50" s="19"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="69"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -21639,9 +21785,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -22276,7 +22422,7 @@
       <c r="AU59" s="15"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="68"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
@@ -22295,12 +22441,12 @@
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -22313,24 +22459,24 @@
       <c r="T60" s="19"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="69"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C61" s="55">
         <f>SUM(C60:E60)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="80">
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="73">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -22343,24 +22489,24 @@
       <c r="T61" s="19"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="74"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="49">
         <f>C61</f>
         <v>0</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="76">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="77">
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -22373,18 +22519,18 @@
       <c r="T62" s="19"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="75"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -22397,16 +22543,16 @@
       <c r="T63" s="19"/>
     </row>
     <row r="64" spans="1:47" s="24" customFormat="1" ht="11">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
@@ -22467,9 +22613,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -23074,7 +23220,7 @@
       <c r="AP72" s="15"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="68"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
@@ -23093,12 +23239,12 @@
       <c r="F73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="70" t="s">
+      <c r="G73" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -23111,24 +23257,24 @@
       <c r="T73" s="19"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="69"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="82">
+      <c r="C74" s="70">
         <f>SUM(C73:E73)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="72">
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="68">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -23141,24 +23287,24 @@
       <c r="T74" s="19"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="74" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="49">
         <f>SUM(C62+C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="58">
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="49">
         <f>SUM(G62+G74)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -23171,16 +23317,16 @@
       <c r="T75" s="19"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="69"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -23241,9 +23387,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -24136,7 +24282,7 @@
       <c r="CL84" s="15"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="68"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
@@ -24155,12 +24301,12 @@
       <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="70" t="s">
+      <c r="G85" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -24173,24 +24319,24 @@
       <c r="T85" s="19"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="69"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="85">
+      <c r="C86" s="55">
         <f>SUM(C85:E85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="80">
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="73">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -24203,24 +24349,24 @@
       <c r="T86" s="19"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="74"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="58">
+      <c r="C87" s="49">
         <f>C86</f>
         <v>0</v>
       </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="76">
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="77">
         <f>G86</f>
         <v>0</v>
       </c>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
@@ -24233,18 +24379,18 @@
       <c r="T87" s="19"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="75"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
@@ -24257,16 +24403,16 @@
       <c r="T88" s="19"/>
     </row>
     <row r="89" spans="1:90" s="28" customFormat="1" ht="7">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
       <c r="K89" s="26"/>
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
@@ -24324,9 +24470,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -25102,7 +25248,7 @@
       <c r="BS97" s="15"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="68"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
@@ -25119,12 +25265,12 @@
         <v>0</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="70" t="s">
+      <c r="G98" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
@@ -25132,24 +25278,24 @@
       <c r="O98" s="18"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="69"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="82">
+      <c r="C99" s="70">
         <f>SUM(C98:E98)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="72">
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="68">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
@@ -25157,24 +25303,24 @@
       <c r="O99" s="18"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="68"/>
-      <c r="B100" s="74" t="s">
+      <c r="A100" s="64"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="58">
+      <c r="C100" s="49">
         <f>SUM(C87+C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="58">
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="49">
         <f>SUM(G87+G99)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
@@ -25182,16 +25328,16 @@
       <c r="O100" s="18"/>
     </row>
     <row r="101" spans="1:71" ht="22" customHeight="1">
-      <c r="A101" s="69"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
@@ -25204,16 +25350,16 @@
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
       <c r="E102" s="42"/>
-      <c r="F102" s="92" t="s">
+      <c r="F102" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="93"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="95">
+      <c r="G102" s="86"/>
+      <c r="H102" s="87"/>
+      <c r="I102" s="88">
         <f>ROUND(SUM(C103:E103),2)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="96"/>
+      <c r="J102" s="89"/>
       <c r="K102" s="30"/>
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
@@ -25221,10 +25367,10 @@
       <c r="O102" s="30"/>
     </row>
     <row r="103" spans="1:71" s="31" customFormat="1" ht="32">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="89"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="38">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
         <v>0</v>
@@ -25237,15 +25383,15 @@
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="97" t="s">
+      <c r="F103" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="98">
-        <v>0</v>
-      </c>
-      <c r="J103" s="98"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59">
+        <v>0</v>
+      </c>
+      <c r="J103" s="59"/>
       <c r="K103" s="30"/>
       <c r="L103" s="30"/>
       <c r="M103" s="30"/>
@@ -25255,21 +25401,53 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="A7Pm8O9pfu9xP/8K4MlVcR3vajbyCIwk3u4VSGnKIFQk6s4bxepw+cEvY0uZx5gxcdz8wuMhoIDNIy96TL7IJg==" saltValue="ZnLm+9SzsKEtT2H4qjufKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="78">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:F76"/>
+    <mergeCell ref="G75:J76"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="C49:F49"/>
@@ -25286,53 +25464,21 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="C37:F38"/>
     <mergeCell ref="G37:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:F76"/>
-    <mergeCell ref="G75:J76"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -25366,10 +25512,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="15" customFormat="1" ht="22">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -25418,9 +25564,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -26523,7 +26669,7 @@
       <c r="DU9" s="15"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="68"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -26542,12 +26688,12 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -26560,24 +26706,24 @@
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="69"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="55">
         <f>SUM(C10:E10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="80">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="73">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -26590,24 +26736,24 @@
       <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="49">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="76">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="77">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -26620,18 +26766,18 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -26644,16 +26790,16 @@
       <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:125" s="24" customFormat="1" ht="11">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -26714,9 +26860,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -27410,7 +27556,7 @@
       <c r="BE22" s="15"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="68"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -27429,12 +27575,12 @@
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -27447,24 +27593,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="69"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="70">
         <f>SUM(C23:E23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="72">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="68">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -27477,24 +27623,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="49">
         <f>SUM(C12+C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="58">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="49">
         <f>SUM(G12+G24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -27507,16 +27653,16 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -27577,9 +27723,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -28658,7 +28804,7 @@
       <c r="DQ34" s="15"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="68"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -28677,12 +28823,12 @@
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -28695,24 +28841,24 @@
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="69"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="55">
         <f>SUM(C35:E35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="80">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="73">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -28725,24 +28871,24 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="49">
         <f>C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="76">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="77">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -28755,18 +28901,18 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -28779,16 +28925,16 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:121" s="24" customFormat="1" ht="11">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -28849,9 +28995,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -29498,7 +29644,7 @@
       <c r="AW47" s="15"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="68"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -29517,12 +29663,12 @@
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="70" t="s">
+      <c r="G48" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -29535,24 +29681,24 @@
       <c r="T48" s="19"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="69"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="70">
         <f>SUM(C48:E48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="72">
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="68">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -29565,24 +29711,24 @@
       <c r="T49" s="19"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="58">
+      <c r="C50" s="49">
         <f>SUM(C37+C49)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="58">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="49">
         <f>SUM(G37+G49)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -29595,16 +29741,16 @@
       <c r="T50" s="19"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="69"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -29665,9 +29811,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -30302,7 +30448,7 @@
       <c r="AU59" s="15"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="68"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
@@ -30321,12 +30467,12 @@
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -30339,24 +30485,24 @@
       <c r="T60" s="19"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="69"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C61" s="55">
         <f>SUM(C60:E60)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="80">
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="73">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -30369,24 +30515,24 @@
       <c r="T61" s="19"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="74"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="49">
         <f>C61</f>
         <v>0</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="76">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="77">
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -30399,18 +30545,18 @@
       <c r="T62" s="19"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="75"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -30423,16 +30569,16 @@
       <c r="T63" s="19"/>
     </row>
     <row r="64" spans="1:47" s="24" customFormat="1" ht="11">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
@@ -30493,9 +30639,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -31100,7 +31246,7 @@
       <c r="AP72" s="15"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="68"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
@@ -31119,12 +31265,12 @@
       <c r="F73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="70" t="s">
+      <c r="G73" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -31137,24 +31283,24 @@
       <c r="T73" s="19"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="69"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="82">
+      <c r="C74" s="70">
         <f>SUM(C73:E73)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="72">
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="68">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -31167,24 +31313,24 @@
       <c r="T74" s="19"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="74" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="49">
         <f>SUM(C62+C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="58">
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="49">
         <f>SUM(G62+G74)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -31197,16 +31343,16 @@
       <c r="T75" s="19"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="69"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -31267,9 +31413,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -32162,7 +32308,7 @@
       <c r="CL84" s="15"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="68"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
@@ -32181,12 +32327,12 @@
       <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="70" t="s">
+      <c r="G85" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -32199,24 +32345,24 @@
       <c r="T85" s="19"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="69"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="85">
+      <c r="C86" s="55">
         <f>SUM(C85:E85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="80">
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="73">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -32229,24 +32375,24 @@
       <c r="T86" s="19"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="74"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="58">
+      <c r="C87" s="49">
         <f>C86</f>
         <v>0</v>
       </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="76">
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="77">
         <f>G86</f>
         <v>0</v>
       </c>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
@@ -32259,18 +32405,18 @@
       <c r="T87" s="19"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="75"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
@@ -32283,16 +32429,16 @@
       <c r="T88" s="19"/>
     </row>
     <row r="89" spans="1:90" s="28" customFormat="1" ht="7">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
       <c r="K89" s="26"/>
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
@@ -32353,9 +32499,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -33134,7 +33280,7 @@
       <c r="BS97" s="15"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="68"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
@@ -33151,12 +33297,12 @@
         <v>0</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="70" t="s">
+      <c r="G98" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
@@ -33164,24 +33310,24 @@
       <c r="O98" s="18"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="69"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="82">
+      <c r="C99" s="70">
         <f>SUM(C98:E98)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="72">
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="68">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
@@ -33189,24 +33335,24 @@
       <c r="O99" s="18"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="68"/>
-      <c r="B100" s="74" t="s">
+      <c r="A100" s="64"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="58">
+      <c r="C100" s="49">
         <f>SUM(C87+C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="58">
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="49">
         <f>SUM(G87+G99)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
@@ -33214,16 +33360,16 @@
       <c r="O100" s="18"/>
     </row>
     <row r="101" spans="1:71" ht="22" customHeight="1">
-      <c r="A101" s="69"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
@@ -33236,16 +33382,16 @@
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
       <c r="E102" s="42"/>
-      <c r="F102" s="92" t="s">
+      <c r="F102" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="93"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="95">
+      <c r="G102" s="86"/>
+      <c r="H102" s="87"/>
+      <c r="I102" s="88">
         <f>ROUND(SUM(C103:E103),2)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="96"/>
+      <c r="J102" s="89"/>
       <c r="K102" s="30"/>
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
@@ -33253,10 +33399,10 @@
       <c r="O102" s="30"/>
     </row>
     <row r="103" spans="1:71" s="31" customFormat="1" ht="32">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="89"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="38">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
         <v>0</v>
@@ -33269,15 +33415,15 @@
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="97" t="s">
+      <c r="F103" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="98">
-        <v>0</v>
-      </c>
-      <c r="J103" s="98"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59">
+        <v>0</v>
+      </c>
+      <c r="J103" s="59"/>
       <c r="K103" s="30"/>
       <c r="L103" s="30"/>
       <c r="M103" s="30"/>
@@ -33287,21 +33433,53 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="JI9P61h+BAvNMuav40g8b0Xhcz69ODfWuhoffO3+FdrUx9jpGLbJGgCPcH6A4syntsyiaozoHhJvSPKvGwPV/A==" saltValue="HGZxgLLh2r0IUqML0KMAEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="78">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:F76"/>
+    <mergeCell ref="G75:J76"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="C49:F49"/>
@@ -33318,53 +33496,21 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="C37:F38"/>
     <mergeCell ref="G37:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:F76"/>
-    <mergeCell ref="G75:J76"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
